--- a/output/17-general-country.xlsx
+++ b/output/17-general-country.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="pairwise" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -5141,4 +5142,245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>460</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>139</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>253</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/17-general-country.xlsx
+++ b/output/17-general-country.xlsx
@@ -5146,7 +5146,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5160,15 +5160,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>revised_general_factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_5</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>n_effect_sizes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>k_studies</t>
         </is>
@@ -5182,14 +5187,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C2">
-        <v>460</v>
-      </c>
       <c r="D2">
-        <v>48</v>
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -5200,14 +5210,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5216,11 +5231,16 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="C4">
-        <v>56</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5231,14 +5251,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
       <c r="D5">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5249,14 +5274,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C6">
-        <v>139</v>
-      </c>
       <c r="D6">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5267,116 +5297,1959 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
-      </c>
-      <c r="C7">
-        <v>5</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C8">
-        <v>253</v>
-      </c>
       <c r="D8">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>47</v>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>51</v>
+          <t>External pressures</t>
+        </is>
       </c>
       <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>15</v>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>5</v>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C13">
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44">
         <v>10</v>
       </c>
-      <c r="D13">
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>88</v>
+      </c>
+      <c r="E53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
         <v>1</v>
       </c>
     </row>
